--- a/data/trans_dic/P78A_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Habitat-trans_dic.xlsx
@@ -584,12 +584,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>84,19; 97,48</t>
+          <t>84,53; 97,5</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>76,26; 95,78</t>
+          <t>76,33; 96,18</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>47,79; 100,0</t>
+          <t>46,78; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>86,88; 94,73</t>
+          <t>87,06; 94,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>85,07; 94,21</t>
+          <t>85,56; 94,21</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,76; 95,17</t>
+          <t>65,04; 94,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,8; 93,44</t>
+          <t>86,93; 93,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>85,83; 92,68</t>
+          <t>85,87; 92,88</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>44,66; 90,7</t>
+          <t>49,05; 91,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,54; 96,74</t>
+          <t>76,6; 96,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,63; 96,07</t>
+          <t>75,9; 95,79</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,06; 91,21</t>
+          <t>54,73; 91,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>74,1; 84,58</t>
+          <t>73,77; 85,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>73,9; 84,49</t>
+          <t>74,22; 84,63</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>67,64; 86,55</t>
+          <t>67,63; 86,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>84,13; 92,29</t>
+          <t>84,33; 92,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>83,2; 90,51</t>
+          <t>83,13; 90,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78A_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78A_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
